--- a/YellowPage/src/main/webapp/template/LogsStatsUser.xlsx
+++ b/YellowPage/src/main/webapp/template/LogsStatsUser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>사용자별 통계</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>업무 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스 종류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,7 +528,7 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>

--- a/YellowPage/src/main/webapp/template/LogsStatsUser.xlsx
+++ b/YellowPage/src/main/webapp/template/LogsStatsUser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>사용자별 통계</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -58,10 +58,6 @@
   </si>
   <si>
     <t>업무 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터페이스 종류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +487,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +524,7 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
